--- a/2024/shuffle-architecute/Teste10/content/results/metrics_5_7.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_5_7.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9605562868274315</v>
+        <v>0.9378428228900854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7492262697996251</v>
+        <v>0.7641466571265128</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9195986839405801</v>
+        <v>0.8579609041328037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.977979323443803</v>
+        <v>0.8746397544798905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9475960334800977</v>
+        <v>0.8666460533623345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655368208885193</v>
+        <v>0.2608603537082672</v>
       </c>
       <c r="H2" t="n">
-        <v>1.676925182342529</v>
+        <v>1.577152490615845</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5139313340187073</v>
+        <v>0.8711748123168945</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1255024820566177</v>
+        <v>0.3081498444080353</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3197168707847595</v>
+        <v>0.5896623134613037</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9604565794431241</v>
+        <v>0.9377533957937588</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7491150999442207</v>
+        <v>0.763592799134406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9203615886594477</v>
+        <v>0.8587519790559959</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9780735504867747</v>
+        <v>0.8754365944232277</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9480396849486684</v>
+        <v>0.8674161791016307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1659552752971649</v>
+        <v>0.2612356841564178</v>
       </c>
       <c r="H3" t="n">
-        <v>1.677668571472168</v>
+        <v>1.580856084823608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5090547800064087</v>
+        <v>0.866322934627533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1249654591083527</v>
+        <v>0.3061911463737488</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3170101344585419</v>
+        <v>0.5862569212913513</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9603470123792768</v>
+        <v>0.9376560634124507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7489988454898857</v>
+        <v>0.7630292632252872</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9211222888612314</v>
+        <v>0.859543623666546</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9781535376356217</v>
+        <v>0.8762235392833082</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9484755414071866</v>
+        <v>0.8681839325174144</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1664151251316071</v>
+        <v>0.261644184589386</v>
       </c>
       <c r="H4" t="n">
-        <v>1.678445816040039</v>
+        <v>1.584624409675598</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5041923522949219</v>
+        <v>0.8614675402641296</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1245095804333687</v>
+        <v>0.3042567372322083</v>
       </c>
       <c r="K4" t="n">
-        <v>0.314350962638855</v>
+        <v>0.5828621387481689</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9602272726801776</v>
+        <v>0.9375504382894437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.748877324896509</v>
+        <v>0.7624558536067749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9218804820088108</v>
+        <v>0.8603348945609367</v>
       </c>
       <c r="E5" t="n">
-        <v>0.978218705194875</v>
+        <v>0.8769999113872228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9489031675006679</v>
+        <v>0.8689485813532605</v>
       </c>
       <c r="G5" t="n">
-        <v>0.166917622089386</v>
+        <v>0.2620874345302582</v>
       </c>
       <c r="H5" t="n">
-        <v>1.679258465766907</v>
+        <v>1.588458776473999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4993459284305573</v>
+        <v>0.8566144108772278</v>
       </c>
       <c r="J5" t="n">
-        <v>0.124138168990612</v>
+        <v>0.3023483157157898</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3117420077323914</v>
+        <v>0.5794810056686401</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9600970693503764</v>
+        <v>0.9374364163967468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7487503520354808</v>
+        <v>0.761872370553378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9226361832731506</v>
+        <v>0.8611263058414844</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9782683824688805</v>
+        <v>0.8777654129550322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9493222090604412</v>
+        <v>0.8697101759459027</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1674640625715256</v>
+        <v>0.2625659704208374</v>
       </c>
       <c r="H6" t="n">
-        <v>1.680107593536377</v>
+        <v>1.592360496520996</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4945154190063477</v>
+        <v>0.8517603874206543</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1238550469279289</v>
+        <v>0.3004666566848755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3091854453086853</v>
+        <v>0.5761134028434753</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9599560997578448</v>
+        <v>0.9373136399638644</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7486177621596299</v>
+        <v>0.7612786230653332</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9233891298191159</v>
+        <v>0.8619170146740218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9783019667852004</v>
+        <v>0.8785193132620139</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9497323598650573</v>
+        <v>0.8704681014249612</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1680556833744049</v>
+        <v>0.2630812227725983</v>
       </c>
       <c r="H7" t="n">
-        <v>1.680994272232056</v>
+        <v>1.596330881118774</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4897025227546692</v>
+        <v>0.8469105958938599</v>
       </c>
       <c r="J7" t="n">
-        <v>0.123663641512394</v>
+        <v>0.2986134588718414</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3066831231117249</v>
+        <v>0.5727620124816895</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9598040143114833</v>
+        <v>0.9371818190352184</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7484793687958996</v>
+        <v>0.7606743899522155</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9241391674715551</v>
+        <v>0.8627069344779901</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9783186618293465</v>
+        <v>0.8792608033331822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9501330682897983</v>
+        <v>0.8712220665513747</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1686939597129822</v>
+        <v>0.2636344432830811</v>
       </c>
       <c r="H8" t="n">
-        <v>1.681919574737549</v>
+        <v>1.600371599197388</v>
       </c>
       <c r="I8" t="n">
-        <v>0.484908252954483</v>
+        <v>0.8420658707618713</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1235684975981712</v>
+        <v>0.2967908084392548</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3042383790016174</v>
+        <v>0.5694281458854675</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9596404661122782</v>
+        <v>0.9370407254863882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7483349670378201</v>
+        <v>0.7600594801181267</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9248860135528779</v>
+        <v>0.8634957836696494</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9783179196954649</v>
+        <v>0.8799894375496967</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9505239599517028</v>
+        <v>0.8719716418134917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.169380322098732</v>
+        <v>0.2642266154289246</v>
       </c>
       <c r="H9" t="n">
-        <v>1.68288516998291</v>
+        <v>1.604483366012573</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4801343679428101</v>
+        <v>0.8372275233268738</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1235727220773697</v>
+        <v>0.2949997186660767</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3018535375595093</v>
+        <v>0.5661136507987976</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9594651219099924</v>
+        <v>0.9368900931418392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7481843614289665</v>
+        <v>0.7594336355623257</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9256296494863935</v>
+        <v>0.8642834479898047</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9782988555264155</v>
+        <v>0.8807045819874456</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9509046359399451</v>
+        <v>0.872716707717047</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1701162159442902</v>
+        <v>0.2648587822914124</v>
       </c>
       <c r="H10" t="n">
-        <v>1.683892250061035</v>
+        <v>1.608668327331543</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4753809571266174</v>
+        <v>0.8323965072631836</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1236813813447952</v>
+        <v>0.2932418286800385</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2995310723781586</v>
+        <v>0.5628191828727722</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9592776262827549</v>
+        <v>0.9367295600930718</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7480273391188932</v>
+        <v>0.7587966831397575</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9263696486501991</v>
+        <v>0.8650694004529752</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9782608247619209</v>
+        <v>0.8814055815107679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9512745057611263</v>
+        <v>0.873456639554208</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1709030866622925</v>
+        <v>0.2655324935913086</v>
       </c>
       <c r="H11" t="n">
-        <v>1.684942364692688</v>
+        <v>1.612927675247192</v>
       </c>
       <c r="I11" t="n">
-        <v>0.470650851726532</v>
+        <v>0.8275759816169739</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1238981261849403</v>
+        <v>0.2915186882019043</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2972744703292847</v>
+        <v>0.5595473051071167</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9590776664845619</v>
+        <v>0.9365588420214828</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7478637096095203</v>
+        <v>0.7581483709007393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9271061046653533</v>
+        <v>0.8658533197440265</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9782030511511692</v>
+        <v>0.8820915644189266</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9516333261079426</v>
+        <v>0.8741909876974809</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1717422604560852</v>
+        <v>0.2662489712238312</v>
       </c>
       <c r="H12" t="n">
-        <v>1.686036586761475</v>
+        <v>1.617262959480286</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4659433364868164</v>
+        <v>0.822767972946167</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1242273971438408</v>
+        <v>0.2898324728012085</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2950853109359741</v>
+        <v>0.5563002228736877</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9588648171769868</v>
+        <v>0.9363776604587917</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7476932155707418</v>
+        <v>0.7574884350308227</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9278386654352663</v>
+        <v>0.8666349481142588</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9781246801674359</v>
+        <v>0.882761925799633</v>
       </c>
       <c r="F13" t="n">
-        <v>0.95198046119506</v>
+        <v>0.8749194444947042</v>
       </c>
       <c r="G13" t="n">
-        <v>0.172635555267334</v>
+        <v>0.2670093476772308</v>
       </c>
       <c r="H13" t="n">
-        <v>1.687176704406738</v>
+        <v>1.621675968170166</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4612607657909393</v>
+        <v>0.8179739713668823</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1246740520000458</v>
+        <v>0.288184642791748</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2929674386978149</v>
+        <v>0.5530791282653809</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.95863871009354</v>
+        <v>0.9361856482179245</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7475156567619041</v>
+        <v>0.7568166787202828</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9285670790590985</v>
+        <v>0.867414038762103</v>
       </c>
       <c r="E14" t="n">
-        <v>0.978024895764483</v>
+        <v>0.8834158560287416</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9523154415631843</v>
+        <v>0.8756415470887223</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1735844761133194</v>
+        <v>0.2678151726722717</v>
       </c>
       <c r="H14" t="n">
-        <v>1.688364028930664</v>
+        <v>1.626168012619019</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4566046893596649</v>
+        <v>0.8131955862045288</v>
       </c>
       <c r="J14" t="n">
-        <v>0.125242754817009</v>
+        <v>0.2865771949291229</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2909237146377563</v>
+        <v>0.549886167049408</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9583989757638521</v>
+        <v>0.9359824846863971</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7473307703272226</v>
+        <v>0.7561328531256413</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9292913598062984</v>
+        <v>0.8681900852344731</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9779028236634102</v>
+        <v>0.8840528697887853</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9526378516756834</v>
+        <v>0.8763567481763306</v>
       </c>
       <c r="G15" t="n">
-        <v>0.174590602517128</v>
+        <v>0.2686678171157837</v>
       </c>
       <c r="H15" t="n">
-        <v>1.689600229263306</v>
+        <v>1.630740642547607</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4519750475883484</v>
+        <v>0.8084357380867004</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1259384900331497</v>
+        <v>0.2850113213062286</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2889566719532013</v>
+        <v>0.5467237234115601</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9581452114992759</v>
+        <v>0.9357677955433835</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7471383300658809</v>
+        <v>0.7554367082435686</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9300110987893289</v>
+        <v>0.8689626169376099</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9777576611865958</v>
+        <v>0.8846716754888426</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9529470914303458</v>
+        <v>0.8770645473176035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1756555736064911</v>
+        <v>0.2695688009262085</v>
       </c>
       <c r="H16" t="n">
-        <v>1.690887212753296</v>
+        <v>1.635395884513855</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4473744034767151</v>
+        <v>0.8036975860595703</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1267658025026321</v>
+        <v>0.2834902703762054</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2870700359344482</v>
+        <v>0.5435940027236938</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9578769705558631</v>
+        <v>0.9355412878019772</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7469380505695689</v>
+        <v>0.7547279804347378</v>
       </c>
       <c r="D17" t="n">
-        <v>0.930726173301861</v>
+        <v>0.8697314497253041</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9775883857719133</v>
+        <v>0.8852716647475346</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9532425969479686</v>
+        <v>0.8777645295256991</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1767813265323639</v>
+        <v>0.2705194354057312</v>
       </c>
       <c r="H17" t="n">
-        <v>1.692226409912109</v>
+        <v>1.640135169029236</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4428035914897919</v>
+        <v>0.7989820241928101</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1277305483818054</v>
+        <v>0.2820154130458832</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2852671444416046</v>
+        <v>0.5404987931251526</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9575938501743526</v>
+        <v>0.9353025873142117</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7467296734929511</v>
+        <v>0.7540063986074631</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9314362151156349</v>
+        <v>0.8704962171083057</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9773941349585195</v>
+        <v>0.885852194989853</v>
       </c>
       <c r="F18" t="n">
-        <v>0.953523830500506</v>
+        <v>0.8784563059209651</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1779695302248001</v>
+        <v>0.2715211808681488</v>
       </c>
       <c r="H18" t="n">
-        <v>1.693619847297668</v>
+        <v>1.644960403442383</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4382649660110474</v>
+        <v>0.7942914962768555</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1288376450538635</v>
+        <v>0.2805883884429932</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2835513353347778</v>
+        <v>0.5374398827552795</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9572954656437263</v>
+        <v>0.9350513335686473</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7465129414708098</v>
+        <v>0.7532716965292405</v>
       </c>
       <c r="D19" t="n">
-        <v>0.932141324116789</v>
+        <v>0.8712563264325844</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9771738705855806</v>
+        <v>0.8864123094572253</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9537903387501752</v>
+        <v>0.8791390903982225</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1792217791080475</v>
+        <v>0.2725756764411926</v>
       </c>
       <c r="H19" t="n">
-        <v>1.695069074630737</v>
+        <v>1.64987325668335</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4337578415870667</v>
+        <v>0.7896294593811035</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1300930082798004</v>
+        <v>0.2792115807533264</v>
       </c>
       <c r="K19" t="n">
-        <v>0.28192538022995</v>
+        <v>0.5344207882881165</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.956981317847433</v>
+        <v>0.9347870990554137</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7462875448770215</v>
+        <v>0.7525235946323074</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9328409213773206</v>
+        <v>0.8720114595338058</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9769267409247675</v>
+        <v>0.8869508047422994</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9540413827412449</v>
+        <v>0.8798125250786683</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1805402040481567</v>
+        <v>0.2736845910549164</v>
       </c>
       <c r="H20" t="n">
-        <v>1.696576356887817</v>
+        <v>1.654875874519348</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4292859435081482</v>
+        <v>0.7849979400634766</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1315014660358429</v>
+        <v>0.2778878808021545</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2803937494754791</v>
+        <v>0.5314429998397827</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9566510327403613</v>
+        <v>0.9345094790549423</v>
       </c>
       <c r="C21" t="n">
-        <v>0.74605321921196</v>
+        <v>0.7517618202008913</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9335351505205478</v>
+        <v>0.8727610863563571</v>
       </c>
       <c r="E21" t="n">
-        <v>0.976651607289691</v>
+        <v>0.887466777697566</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9542765400487211</v>
+        <v>0.8804758582937348</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1819263398647308</v>
+        <v>0.2748497128486633</v>
       </c>
       <c r="H21" t="n">
-        <v>1.698143362998962</v>
+        <v>1.659969806671143</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4248483777046204</v>
+        <v>0.7804002165794373</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1330695301294327</v>
+        <v>0.2766195833683014</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2789590358734131</v>
+        <v>0.5285098552703857</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9563041204253482</v>
+        <v>0.9342181646285557</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7458096343411826</v>
+        <v>0.7509860798363511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9342236225196018</v>
+        <v>0.8735047449000005</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9763474586503145</v>
+        <v>0.8879597804906789</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9544951578512145</v>
+        <v>0.8811286435917053</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1833822429180145</v>
+        <v>0.2760722637176514</v>
       </c>
       <c r="H22" t="n">
-        <v>1.699772238731384</v>
+        <v>1.665157198905945</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4204476475715637</v>
+        <v>0.77583909034729</v>
       </c>
       <c r="J22" t="n">
-        <v>0.134802982211113</v>
+        <v>0.2754077315330505</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2776252627372742</v>
+        <v>0.5256234407424927</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9559400980898121</v>
+        <v>0.9339126319564053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7455564850538237</v>
+        <v>0.7501960552599887</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9349061163938163</v>
+        <v>0.8742418812883189</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9760132273933576</v>
+        <v>0.8884281110177327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.954696591807797</v>
+        <v>0.8817700324115498</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1849099695682526</v>
+        <v>0.2773545384407043</v>
       </c>
       <c r="H23" t="n">
-        <v>1.701465010643005</v>
+        <v>1.670440196990967</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4160850644111633</v>
+        <v>0.7713180184364319</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1367078572511673</v>
+        <v>0.2742564976215363</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2763963341712952</v>
+        <v>0.52278733253479</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9555585099818329</v>
+        <v>0.9335925427287425</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7452934265991764</v>
+        <v>0.749391476684561</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9355825081528857</v>
+        <v>0.8749722676862285</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9756477478851117</v>
+        <v>0.8888713125427765</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9548801671881284</v>
+        <v>0.8823997228010502</v>
       </c>
       <c r="G24" t="n">
-        <v>0.186511442065239</v>
+        <v>0.2786978781223297</v>
       </c>
       <c r="H24" t="n">
-        <v>1.703224182128906</v>
+        <v>1.675820350646973</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4117615222930908</v>
+        <v>0.7668383121490479</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1387908458709717</v>
+        <v>0.2731670737266541</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2752763032913208</v>
+        <v>0.5200029611587524</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9551589042676468</v>
+        <v>0.933257425154116</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7450201273851713</v>
+        <v>0.7485720161617671</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9362526058012455</v>
+        <v>0.8756950700998324</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9752499776774266</v>
+        <v>0.889287828829463</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9550454650352471</v>
+        <v>0.8830168567212099</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1881884783506393</v>
+        <v>0.2801042795181274</v>
       </c>
       <c r="H25" t="n">
-        <v>1.70505154132843</v>
+        <v>1.681300163269043</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4074782133102417</v>
+        <v>0.7624050974845886</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1410578489303589</v>
+        <v>0.2721432149410248</v>
       </c>
       <c r="K25" t="n">
-        <v>0.274267852306366</v>
+        <v>0.5172741413116455</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9547407106339854</v>
+        <v>0.9329068002919184</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7447362296042714</v>
+        <v>0.7477373200908086</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9369160433416597</v>
+        <v>0.8764098021671376</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9748187298498964</v>
+        <v>0.8896770402248287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.955191544452069</v>
+        <v>0.8836207848786638</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1899435669183731</v>
+        <v>0.2815757989883423</v>
       </c>
       <c r="H26" t="n">
-        <v>1.706949949264526</v>
+        <v>1.68688178062439</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4032374620437622</v>
+        <v>0.7580214142799377</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1435156613588333</v>
+        <v>0.271186500787735</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2733765840530396</v>
+        <v>0.5146036744117737</v>
       </c>
     </row>
   </sheetData>
